--- a/ucode5.xlsx
+++ b/ucode5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulh\Documents\Fall 2023\Computer Architecture\Labs\comp-arch-lab-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D678D84B-CA77-4B36-A416-14B8F6EBF113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF26A90D-0A25-4EF4-8EAD-621EFD6A0E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="13" t="s">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="13" t="s">
         <v>0</v>
@@ -8913,19 +8913,19 @@
         <v>0</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>0</v>
@@ -9071,13 +9071,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>0</v>
@@ -9384,16 +9384,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>0</v>
@@ -9542,16 +9542,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="13" t="s">
         <v>0</v>
@@ -9703,13 +9703,13 @@
         <v>0</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="13" t="s">
         <v>0</v>
